--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3420.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3420.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.185861289016021</v>
+        <v>1.393692374229431</v>
       </c>
       <c r="B1">
-        <v>1.788771299229334</v>
+        <v>2.589281797409058</v>
       </c>
       <c r="C1">
-        <v>3.8914282850743</v>
+        <v>6.662294864654541</v>
       </c>
       <c r="D1">
-        <v>4.719040372946339</v>
+        <v>2.417054653167725</v>
       </c>
       <c r="E1">
-        <v>1.320649427466914</v>
+        <v>1.202142357826233</v>
       </c>
     </row>
   </sheetData>
